--- a/data/nb-eval-set.xlsx
+++ b/data/nb-eval-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmatekenya/git-repos/rag-demo-chichewa/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD52D17-C850-E446-95AA-6ECBA6D892D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DD2E1B16-C032-6643-8A18-93256C88A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{14ED6122-1A84-5F4A-8E16-B11DFDFA5FB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="276">
   <si>
     <t>question</t>
   </si>
@@ -795,13 +795,79 @@
   </si>
   <si>
     <t>q120</t>
+  </si>
+  <si>
+    <t>q121</t>
+  </si>
+  <si>
+    <t>What are the benefits of Amayi Angathe Business Savings Account?</t>
+  </si>
+  <si>
+    <t>You get a free ATM card and free Mo626 usage.</t>
+  </si>
+  <si>
+    <t>There’s no monthly fee for the first six months.</t>
+  </si>
+  <si>
+    <t>EFT salary payments cost 50% less.</t>
+  </si>
+  <si>
+    <t>q122</t>
+  </si>
+  <si>
+    <t>q123</t>
+  </si>
+  <si>
+    <t>Amayi Angathe Business Savings Account</t>
+  </si>
+  <si>
+    <t>benefits of Amayi Angathe Business Savings Account?</t>
+  </si>
+  <si>
+    <t>phone number for balaka?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts </t>
+  </si>
+  <si>
+    <t>phone number for Zomba</t>
+  </si>
+  <si>
+    <t>Phone: (265) 111 524 788</t>
+  </si>
+  <si>
+    <t>Email: zomba@natbankmw.com</t>
+  </si>
+  <si>
+    <t>(265) 111 552 222</t>
+  </si>
+  <si>
+    <t>phone: (265) 111 552 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndimafuna kutsegula mlimi account </t>
+  </si>
+  <si>
+    <t>Amayi angathe account ubwino wake ndichani?</t>
+  </si>
+  <si>
+    <t>Amayi Angathe Account imapereka free ATM &amp; Mo626, palibe service fee kwa miyezi 6 yoyamba ndipo EFT salary payments amachepetsedwa ndi 50%, zomwe zimapangitsa banking kukhala yotsika mtengo kwa mabizinesi azimayi.</t>
+  </si>
+  <si>
+    <t>Kodi Amayi angathe account ubwino wake ndichani?</t>
+  </si>
+  <si>
+    <t>Ubwino wa Amayi Angathe Business Savings Account ndi uwu, motsatira zomwe zili mu fact sheet ya NBM: Simulipira monthly service fee kwa miyezi 6 yoyamba, kenako mumangolipira MK200 yokha pamwezi; Free ATM card komanso free Mo626 Digital+ usage, zomwe zimachepetsa ndalama zomwe; Salary payment EFT fees zimachepetsedwa ndi 50%, moti malipiro a ogwira ntchito amakhala otsika mtengo</t>
+  </si>
+  <si>
+    <t>Mlimi Account ndi akaunti yomwe inapangidwa kuti ithandize alimi odziyimila pawokha, ma club a alimi ndi eni ma estate. Akountiyi imangofunika minimum balance ya MK200 yokha basi ndipo palibe ma bank charges aliwonse; imathandiza alimi kuti asunge ndalama zomwe apindula kuchokela ku ulimi wawo. Kuti mutsegule akountiyi, muyenera kukhala ndi zinthu izi: account opening forms, KYC documentation, komanso umboni wosonyeza kuti ndinu mlimi monga ID kapena zikalata zina zotsimikiza kuti ndinu alimi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -942,6 +1008,25 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="OpenSansRegular"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1241,7 +1326,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1284,12 +1369,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1323,6 +1411,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1663,13 +1752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F1A523-B25B-F645-A3E6-7B64A5000466}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="55.5" customWidth="1"/>
@@ -1677,7 +1766,7 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1694,7 +1783,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -1705,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -1716,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -1727,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1738,7 +1827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -1749,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -1760,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -1771,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -1782,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -1793,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1804,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -1815,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -1826,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -1837,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -1848,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -1859,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -1870,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -1881,7 +1970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -1892,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -1903,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -1914,7 +2003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -1925,7 +2014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -1936,7 +2025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -1947,7 +2036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -1958,7 +2047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -1969,7 +2058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -1980,7 +2069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -1991,7 +2080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -2002,7 +2091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -2013,7 +2102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -2024,7 +2113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -2035,7 +2124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -2046,7 +2135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -2057,7 +2146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -2068,7 +2157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -2079,7 +2168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -2090,7 +2179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -2101,7 +2190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -2112,7 +2201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -2123,7 +2212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -2134,7 +2223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -2145,7 +2234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -2156,7 +2245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -2167,7 +2256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -2178,7 +2267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -2189,7 +2278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -2200,7 +2289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -2211,7 +2300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -2222,7 +2311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -2233,7 +2322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -2244,7 +2333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>184</v>
       </c>
@@ -2255,7 +2344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -2266,7 +2355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -2277,7 +2366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -2288,7 +2377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>188</v>
       </c>
@@ -2299,7 +2388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -2310,7 +2399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -2321,7 +2410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -2332,7 +2421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>192</v>
       </c>
@@ -2343,7 +2432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -2354,7 +2443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>194</v>
       </c>
@@ -2365,7 +2454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>195</v>
       </c>
@@ -2376,7 +2465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -2387,7 +2476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -2398,7 +2487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -2409,7 +2498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>199</v>
       </c>
@@ -2420,7 +2509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -2431,7 +2520,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -2442,7 +2531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -2453,7 +2542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -2464,7 +2553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>204</v>
       </c>
@@ -2475,7 +2564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>205</v>
       </c>
@@ -2486,7 +2575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>206</v>
       </c>
@@ -2497,7 +2586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>207</v>
       </c>
@@ -2508,7 +2597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -2519,7 +2608,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>209</v>
       </c>
@@ -2530,7 +2619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -2541,7 +2630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>211</v>
       </c>
@@ -2552,7 +2641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>212</v>
       </c>
@@ -2563,7 +2652,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>213</v>
       </c>
@@ -2574,7 +2663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -2585,7 +2674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>215</v>
       </c>
@@ -2596,7 +2685,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -2607,7 +2696,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -2618,7 +2707,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -2629,7 +2718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -2640,7 +2729,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -2651,7 +2740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -2662,7 +2751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -2673,7 +2762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -2684,7 +2773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>224</v>
       </c>
@@ -2695,7 +2784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -2706,7 +2795,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>226</v>
       </c>
@@ -2717,7 +2806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>227</v>
       </c>
@@ -2728,7 +2817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>228</v>
       </c>
@@ -2739,7 +2828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>229</v>
       </c>
@@ -2750,7 +2839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -2761,7 +2850,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -2772,7 +2861,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -2783,7 +2872,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -2794,7 +2883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -2805,7 +2894,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>235</v>
       </c>
@@ -2816,7 +2905,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -2827,7 +2916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -2838,7 +2927,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -2849,7 +2938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>239</v>
       </c>
@@ -2860,7 +2949,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -2871,7 +2960,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>241</v>
       </c>
@@ -2882,7 +2971,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>242</v>
       </c>
@@ -2893,7 +2982,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>243</v>
       </c>
@@ -2904,7 +2993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>244</v>
       </c>
@@ -2915,7 +3004,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>245</v>
       </c>
@@ -2926,7 +3015,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>246</v>
       </c>
@@ -2937,7 +3026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -2948,7 +3037,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -2959,7 +3048,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>249</v>
       </c>
@@ -2970,7 +3059,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>250</v>
       </c>
@@ -2981,7 +3070,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>251</v>
       </c>
@@ -2992,7 +3081,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -3003,7 +3092,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>253</v>
       </c>
@@ -3014,7 +3103,139 @@
         <v>124</v>
       </c>
     </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>256</v>
+      </c>
+      <c r="E122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>257</v>
+      </c>
+      <c r="E123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>258</v>
+      </c>
+      <c r="E124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" t="s">
+        <v>264</v>
+      </c>
+      <c r="D126" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18">
+      <c r="B128" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D127" r:id="rId1" display="mailto:zomba@natbankmw.com" xr:uid="{95D0E18B-D1F3-234D-AE6F-83F1FE5E0EF1}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
